--- a/experiments/nrp_sat_pairwise_exp_results.xlsx
+++ b/experiments/nrp_sat_pairwise_exp_results.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,20 +452,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -490,13 +500,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>63.5189</v>
+        <v>32.3935</v>
       </c>
       <c r="G2" t="n">
-        <v>5064.8</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32.3935</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5002.2</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -517,13 +533,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>62.9168</v>
+        <v>31.9932</v>
       </c>
       <c r="G3" t="n">
-        <v>5114.5</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>31.9932</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5022.5</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -544,13 +566,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>63.5179</v>
+        <v>32.2098</v>
       </c>
       <c r="G4" t="n">
-        <v>5002.2</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32.2098</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5047.9</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -571,13 +599,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>63.014</v>
+        <v>32.0937</v>
       </c>
       <c r="G5" t="n">
-        <v>5112</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>32.0937</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5025.4</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -598,13 +632,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>63.0137</v>
+        <v>32.1011</v>
       </c>
       <c r="G6" t="n">
-        <v>5096.9</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>32.1011</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5017.9</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -625,13 +665,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>62.9103</v>
+        <v>32.1895</v>
       </c>
       <c r="G7" t="n">
-        <v>5003.4</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>32.1895</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5041.6</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -652,13 +698,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>63.0161</v>
+        <v>32.9063</v>
       </c>
       <c r="G8" t="n">
-        <v>5066.5</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>32.9063</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5048.6</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -679,13 +731,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>63.9168</v>
+        <v>32.4301</v>
       </c>
       <c r="G9" t="n">
-        <v>5214.4</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>32.4301</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5001</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -706,13 +764,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>63.7135</v>
+        <v>32.4715</v>
       </c>
       <c r="G10" t="n">
-        <v>5197</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32.4715</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5013.9</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -733,13 +797,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>63.4146</v>
+        <v>31.786</v>
       </c>
       <c r="G11" t="n">
-        <v>5058.7</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31.786</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5023.8</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -762,13 +832,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>63.29526</v>
+        <v>32.25747</v>
       </c>
       <c r="G12" t="n">
-        <v>5093.039999999999</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>32.25747</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5024.48</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -781,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,20 +893,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -855,13 +941,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.8251</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5113.7</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5001.9</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -882,13 +974,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>58.7219</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5154.1</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5070.5</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -909,13 +1007,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>58.2129</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5022.2</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5045.9</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -936,13 +1040,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>58.9236</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5091.4</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5067.8</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -963,13 +1073,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>58.416</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5000.5</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5010.9</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -990,13 +1106,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>61.6319</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5004.5</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5078.4</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1017,13 +1139,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>62.2395</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5006.4</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5055.6</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1044,13 +1172,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>59.4199</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5169.8</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5068.9</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1071,13 +1205,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>61.833</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5001</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5034.1</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1098,13 +1238,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>59.32</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5092</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5005.3</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1127,13 +1273,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>59.75438</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5065.559999999999</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5043.929999999999</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1146,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1182,20 +1334,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -1220,13 +1382,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.9242</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5039.7</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5079.8</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1247,13 +1415,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>62.3498</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5002.5</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5010.5</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1274,13 +1448,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>61.3368</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5006.1</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5080</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1301,13 +1481,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>58.8214</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5100.5</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5061.2</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1328,13 +1514,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>61.5371</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5002.3</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5046.2</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1355,13 +1547,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>58.8168</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5102.2</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5018.3</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1382,13 +1580,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>59.7324</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5125.7</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5047.4</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1409,13 +1613,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>62.237</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5006.1</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5051.8</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1436,13 +1646,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>59.2255</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5070.3</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5016.2</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1463,13 +1679,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>59.3218</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5079.8</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5058.8</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1492,13 +1714,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>60.23028000000001</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5053.520000000001</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5047.02</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1511,7 +1739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1547,20 +1775,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -1585,13 +1823,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>61.0355</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5004</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5034.6</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1612,13 +1856,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>62.8477</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5009.2</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5062.2</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1639,13 +1889,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>61.3269</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5009.3</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5050.5</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1666,13 +1922,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>58.6163</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5060.9</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5049</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1693,13 +1955,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>61.5343</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5005.9</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5053.5</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1720,13 +1988,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>59.324</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5140.9</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5028.6</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1747,13 +2021,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>62.4447</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5009</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5032.6</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1774,13 +2054,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>59.0205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>5115.8</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5053.1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1801,13 +2087,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>61.0306</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5084.1</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5072.8</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1828,13 +2120,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>61.8396</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5008.9</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5051.4</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1857,13 +2155,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>60.90201</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5044.8</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5048.830000000001</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
